--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H2">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20561225939693</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N2">
-        <v>3.20561225939693</v>
+        <v>24.807506</v>
       </c>
       <c r="O2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q2">
-        <v>36.28818761985256</v>
+        <v>98.53237077793065</v>
       </c>
       <c r="R2">
-        <v>36.28818761985256</v>
+        <v>886.7913370013758</v>
       </c>
       <c r="S2">
-        <v>0.09769312841845962</v>
+        <v>0.1480223485819282</v>
       </c>
       <c r="T2">
-        <v>0.09769312841845962</v>
+        <v>0.1480223485819282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H3">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.79752459819889</v>
+        <v>0.121294</v>
       </c>
       <c r="N3">
-        <v>3.79752459819889</v>
+        <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q3">
-        <v>42.98875658042678</v>
+        <v>1.445294667808</v>
       </c>
       <c r="R3">
-        <v>42.98875658042678</v>
+        <v>13.007652010272</v>
       </c>
       <c r="S3">
-        <v>0.1157320437481413</v>
+        <v>0.002171224638490028</v>
       </c>
       <c r="T3">
-        <v>0.1157320437481413</v>
+        <v>0.002171224638490028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.7366138167649</v>
+        <v>11.915632</v>
       </c>
       <c r="H4">
-        <v>29.7366138167649</v>
+        <v>35.746896</v>
       </c>
       <c r="I4">
-        <v>0.5606384316532056</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J4">
-        <v>0.5606384316532056</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20561225939693</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N4">
-        <v>3.20561225939693</v>
+        <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q4">
-        <v>95.3240538039737</v>
+        <v>46.71768590431467</v>
       </c>
       <c r="R4">
-        <v>95.3240538039737</v>
+        <v>420.459173138832</v>
       </c>
       <c r="S4">
-        <v>0.2566263470415113</v>
+        <v>0.0701826367646721</v>
       </c>
       <c r="T4">
-        <v>0.2566263470415113</v>
+        <v>0.07018263676467211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H5">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.79752459819889</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N5">
-        <v>3.79752459819889</v>
+        <v>24.807506</v>
       </c>
       <c r="O5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q5">
-        <v>112.9255224363057</v>
+        <v>246.4252533518073</v>
       </c>
       <c r="R5">
-        <v>112.9255224363057</v>
+        <v>2217.827280166266</v>
       </c>
       <c r="S5">
-        <v>0.3040120846116943</v>
+        <v>0.3701975753048785</v>
       </c>
       <c r="T5">
-        <v>0.3040120846116943</v>
+        <v>0.3701975753048786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9838080677957</v>
+        <v>29.800487</v>
       </c>
       <c r="H6">
-        <v>11.9838080677957</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.2259363961801936</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J6">
-        <v>0.2259363961801936</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.20561225939693</v>
+        <v>0.121294</v>
       </c>
       <c r="N6">
-        <v>3.20561225939693</v>
+        <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q6">
-        <v>38.41544205638573</v>
+        <v>3.614620270178</v>
       </c>
       <c r="R6">
-        <v>38.41544205638573</v>
+        <v>32.531582431602</v>
       </c>
       <c r="S6">
-        <v>0.1034200096566199</v>
+        <v>0.005430140139725849</v>
       </c>
       <c r="T6">
-        <v>0.1034200096566199</v>
+        <v>0.00543014013972585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9838080677957</v>
+        <v>29.800487</v>
       </c>
       <c r="H7">
-        <v>11.9838080677957</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.2259363961801936</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J7">
-        <v>0.2259363961801936</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.79752459819889</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N7">
-        <v>3.79752459819889</v>
+        <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q7">
-        <v>45.50880591754848</v>
+        <v>116.8389382503264</v>
       </c>
       <c r="R7">
-        <v>45.50880591754848</v>
+        <v>1051.550444252937</v>
       </c>
       <c r="S7">
-        <v>0.1225163865235737</v>
+        <v>0.1755237787245639</v>
       </c>
       <c r="T7">
-        <v>0.1225163865235737</v>
+        <v>0.175523778724564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.35338333333333</v>
+      </c>
+      <c r="H8">
+        <v>37.06015</v>
+      </c>
+      <c r="I8">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="J8">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.269168666666666</v>
+      </c>
+      <c r="N8">
+        <v>24.807506</v>
+      </c>
+      <c r="O8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="P8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="Q8">
+        <v>102.1522103873222</v>
+      </c>
+      <c r="R8">
+        <v>919.3698934858999</v>
+      </c>
+      <c r="S8">
+        <v>0.1534603295849392</v>
+      </c>
+      <c r="T8">
+        <v>0.1534603295849392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.35338333333333</v>
+      </c>
+      <c r="H9">
+        <v>37.06015</v>
+      </c>
+      <c r="I9">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="J9">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.121294</v>
+      </c>
+      <c r="N9">
+        <v>0.363882</v>
+      </c>
+      <c r="O9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="P9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="Q9">
+        <v>1.498391278033333</v>
+      </c>
+      <c r="R9">
+        <v>13.4855215023</v>
+      </c>
+      <c r="S9">
+        <v>0.002250990149917806</v>
+      </c>
+      <c r="T9">
+        <v>0.002250990149917806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.35338333333333</v>
+      </c>
+      <c r="H10">
+        <v>37.06015</v>
+      </c>
+      <c r="I10">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="J10">
+        <v>0.2284722958457413</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.920705666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.762117</v>
+      </c>
+      <c r="O10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="P10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="Q10">
+        <v>48.43398003750556</v>
+      </c>
+      <c r="R10">
+        <v>435.90582033755</v>
+      </c>
+      <c r="S10">
+        <v>0.07276097611088422</v>
+      </c>
+      <c r="T10">
+        <v>0.07276097611088422</v>
       </c>
     </row>
   </sheetData>
